--- a/RAW/Product.xlsx
+++ b/RAW/Product.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\095047\Desktop\FinalProject_WEB_KSAT006ONL010_Chandra\Raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\095057\Documents\BTDP-Assignment\Final Project Katalon\FinalProjectWeb\FinalProjectWeb\RAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>product_url</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>https://kotakoki.wijaysali.my.id/product/album/</t>
   </si>
@@ -42,6 +36,24 @@
   </si>
   <si>
     <t>Beanie</t>
+  </si>
+  <si>
+    <t>Rp15.000</t>
+  </si>
+  <si>
+    <t>Rp20 Rp18</t>
+  </si>
+  <si>
+    <t>productQty</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>productPrice</t>
+  </si>
+  <si>
+    <t>productUrl</t>
   </si>
 </sst>
 </file>
@@ -77,8 +89,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,42 +374,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>